--- a/Data/EC/NIT-9001196623.xlsx
+++ b/Data/EC/NIT-9001196623.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1E5E6A7-6F3B-4652-968F-32E2993E9A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7AB9937-C0BA-4625-BCFD-71118D0D53C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6AED381B-490D-4255-BE94-FECA0F767B15}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A7E18A0F-60AE-4C5E-8073-23BB5FC1A7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,228 +65,228 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128053430</t>
+  </si>
+  <si>
+    <t>CESAR AUGUSTO DAZA FAILACH</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>73121092</t>
+  </si>
+  <si>
+    <t>JAVIER EDUARDO GUERRERO MENDEZ</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>45760965</t>
+  </si>
+  <si>
+    <t>ADIS CECILIA LOZANO RODRIGUEZ</t>
+  </si>
+  <si>
     <t>1128047791</t>
   </si>
   <si>
     <t>ALEXANDRA MILENA CASTILLA PEÑA</t>
   </si>
   <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>45532722</t>
+  </si>
+  <si>
+    <t>LINA MARCELA ATENCIO UPARELA</t>
+  </si>
+  <si>
+    <t>45487015</t>
+  </si>
+  <si>
+    <t>NIVIA DEL CARMEN MENDOZA ESTRADA</t>
+  </si>
+  <si>
+    <t>45504280</t>
+  </si>
+  <si>
+    <t>IVON CRUZ CORPAS</t>
+  </si>
+  <si>
+    <t>45764897</t>
+  </si>
+  <si>
+    <t>ELOIRIS GALET LOPEZ</t>
+  </si>
+  <si>
+    <t>45455207</t>
+  </si>
+  <si>
+    <t>MARIA EDUVIGES PEREZ PEREZ</t>
+  </si>
+  <si>
+    <t>1143332920</t>
+  </si>
+  <si>
+    <t>SWANNY LIV ROCHA ACOSTA</t>
+  </si>
+  <si>
+    <t>73146437</t>
+  </si>
+  <si>
+    <t>FERNANDO LUIS SALADEN ROA</t>
+  </si>
+  <si>
+    <t>33134317</t>
+  </si>
+  <si>
+    <t>ALAYS ESTHER PACHECO DE AVILA</t>
+  </si>
+  <si>
+    <t>1143350971</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA MORELOS DIAZ</t>
+  </si>
+  <si>
+    <t>1143346514</t>
+  </si>
+  <si>
+    <t>ANYELI TATIANA MARRUGO MIRANDA</t>
+  </si>
+  <si>
+    <t>31389264</t>
+  </si>
+  <si>
+    <t>CARMEN DEL SOCORRO PAREDES BORRERO</t>
+  </si>
+  <si>
+    <t>1143338941</t>
+  </si>
+  <si>
+    <t>ROSA ELENA MONTES ARAUJO</t>
+  </si>
+  <si>
+    <t>1047375636</t>
+  </si>
+  <si>
+    <t>GUSTAVO ADOLFO VANEGAS LLANOS</t>
+  </si>
+  <si>
+    <t>1051417046</t>
+  </si>
+  <si>
+    <t>ANDREY DEL CARMEN MENDOZA MUÑOZ</t>
+  </si>
+  <si>
+    <t>45504564</t>
+  </si>
+  <si>
+    <t>GLORIA MARIA MARQUEZ MORELOS</t>
+  </si>
+  <si>
+    <t>45499487</t>
+  </si>
+  <si>
+    <t>SILVIA J MARRUGO TORRES</t>
+  </si>
+  <si>
+    <t>30770049</t>
+  </si>
+  <si>
+    <t>MARLENIS DEL CARMEN ACOSTA MARRUGO</t>
+  </si>
+  <si>
+    <t>32937193</t>
+  </si>
+  <si>
+    <t>KELYS DEL CARMEN MENDOZA PEREZ</t>
+  </si>
+  <si>
+    <t>1047415613</t>
+  </si>
+  <si>
+    <t>LEIDIS PAOLA MERCADO AYUBB</t>
+  </si>
+  <si>
+    <t>1047469735</t>
+  </si>
+  <si>
+    <t>DIANA ESPERANZA FORERO VASQUEZ</t>
+  </si>
+  <si>
+    <t>22855983</t>
+  </si>
+  <si>
+    <t>DAYCY ESTHER POLO ESCOBAR</t>
+  </si>
+  <si>
+    <t>73508465</t>
+  </si>
+  <si>
+    <t>AMILCAR BEIRAS FIGUEROA</t>
+  </si>
+  <si>
     <t>1612</t>
   </si>
   <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>45532722</t>
-  </si>
-  <si>
-    <t>LINA MARCELA ATENCIO UPARELA</t>
-  </si>
-  <si>
-    <t>45487015</t>
-  </si>
-  <si>
-    <t>NIVIA DELCARMEN MENDOZA ESTRADA</t>
-  </si>
-  <si>
-    <t>45504280</t>
-  </si>
-  <si>
-    <t>IVON CRUZ CORPAS</t>
-  </si>
-  <si>
-    <t>45764897</t>
-  </si>
-  <si>
-    <t>ELOIRIS GALET LOPEZ</t>
-  </si>
-  <si>
-    <t>45455207</t>
-  </si>
-  <si>
-    <t>MARIA EDUVIGES PEREZ PEREZ</t>
-  </si>
-  <si>
-    <t>1143332920</t>
-  </si>
-  <si>
-    <t>SWANNY LIV ROCHA ACOSTA</t>
-  </si>
-  <si>
-    <t>73146437</t>
-  </si>
-  <si>
-    <t>FERNANDO LUIS SALADEN ROA</t>
-  </si>
-  <si>
-    <t>33134317</t>
-  </si>
-  <si>
-    <t>ALAYS ESTHER PACHECO DE AVILA</t>
-  </si>
-  <si>
     <t>45766516</t>
   </si>
   <si>
     <t>ALEXANDRA OLIVO ARRIETA</t>
   </si>
   <si>
-    <t>1143350971</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA MORELOS DIAZ</t>
-  </si>
-  <si>
-    <t>1143346514</t>
-  </si>
-  <si>
-    <t>ANYELI TATIANA MARRUGO MIRANDA</t>
-  </si>
-  <si>
-    <t>1128053430</t>
-  </si>
-  <si>
-    <t>CESAR AUGUSTO DAZA FAILACH</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>31389264</t>
-  </si>
-  <si>
-    <t>CARMEN DEL SOCORRO PAREDES BORRERO</t>
-  </si>
-  <si>
-    <t>1143338941</t>
-  </si>
-  <si>
-    <t>ROSA ELENA MONTES ARAUJO</t>
-  </si>
-  <si>
-    <t>1047375636</t>
-  </si>
-  <si>
-    <t>GUSTAVO ADOLFO VANEGAS LLANOS</t>
-  </si>
-  <si>
-    <t>1051417046</t>
-  </si>
-  <si>
-    <t>ANDREY DEL CARMEN MENDOZA MUÑOZ</t>
-  </si>
-  <si>
-    <t>45504564</t>
-  </si>
-  <si>
-    <t>GLORIA MARIA MARQUEZ MORELOS</t>
-  </si>
-  <si>
-    <t>45499487</t>
-  </si>
-  <si>
-    <t>SILVIA J MARRUGO TORRES</t>
-  </si>
-  <si>
     <t>73205023</t>
   </si>
   <si>
     <t>JORGE LUIS MARQUEZ MORELOS</t>
   </si>
   <si>
+    <t>1701</t>
+  </si>
+  <si>
     <t>1702</t>
   </si>
   <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>73121092</t>
-  </si>
-  <si>
-    <t>JAVIER EDUARDO GUERRERO MENDEZ</t>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
   </si>
   <si>
     <t>1712</t>
   </si>
   <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>30770049</t>
-  </si>
-  <si>
-    <t>MARLENIS DEL CARMEN ACOSTA MARRUGO</t>
-  </si>
-  <si>
-    <t>32937193</t>
-  </si>
-  <si>
-    <t>KELYS DEL CARMEN MENDOZA PEREZ</t>
-  </si>
-  <si>
-    <t>1047415613</t>
-  </si>
-  <si>
-    <t>LEIDIS PAOLA MERCADO AYUBB</t>
-  </si>
-  <si>
-    <t>1047469735</t>
-  </si>
-  <si>
-    <t>DIANA ESPERANZA FORERO VASQUEZ</t>
-  </si>
-  <si>
-    <t>22855983</t>
-  </si>
-  <si>
-    <t>DAYCY ESTHER POLO ESCOBAR</t>
-  </si>
-  <si>
-    <t>73508465</t>
-  </si>
-  <si>
-    <t>AMILCAR BEIRAS FIGUEROA</t>
-  </si>
-  <si>
-    <t>45760965</t>
-  </si>
-  <si>
-    <t>ADIS CECILIA LOZANO RODRIGUEZ</t>
-  </si>
-  <si>
     <t>20341190</t>
   </si>
   <si>
@@ -302,16 +302,16 @@
     <t>MISHEL NICOLE JARABA FIGUEROA</t>
   </si>
   <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
     <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
   </si>
   <si>
     <t>1193572098</t>
@@ -425,7 +425,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -438,9 +440,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -640,23 +640,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,10 +684,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,7 +740,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE80EF3-6757-41F1-4935-BBD62E20F035}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AB6F96-CC30-403E-D9F9-D1AA0489FAB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1091,7 +1091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861936BA-DF71-4AE9-99DF-69B8FDF2D2DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3761E0-F730-4976-AE43-6D3E1B98C0EC}">
   <dimension ref="B2:J100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1269,10 +1269,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G16" s="18">
-        <v>1027300</v>
+        <v>976000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1283,19 +1283,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G17" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1306,19 +1306,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G18" s="18">
-        <v>1027300</v>
+        <v>976000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1329,19 +1329,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F19" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G19" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1352,19 +1352,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F20" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G20" s="18">
-        <v>1027300</v>
+        <v>976000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1375,19 +1375,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F21" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G21" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1398,19 +1398,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G22" s="18">
-        <v>1027300</v>
+        <v>976000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1421,19 +1421,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G23" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1444,19 +1444,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F24" s="18">
-        <v>41092</v>
+        <v>919</v>
       </c>
       <c r="G24" s="18">
-        <v>1027300</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1473,13 +1473,13 @@
         <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>41092</v>
       </c>
       <c r="G25" s="18">
-        <v>1027300</v>
+        <v>1511789</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1490,19 +1490,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F26" s="18">
         <v>41092</v>
       </c>
       <c r="G26" s="18">
-        <v>1027300</v>
+        <v>1384546</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1513,19 +1513,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F27" s="18">
         <v>41092</v>
       </c>
       <c r="G27" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1536,19 +1536,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
         <v>41092</v>
       </c>
       <c r="G28" s="18">
-        <v>1027300</v>
+        <v>1838000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1559,19 +1559,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
         <v>41092</v>
       </c>
       <c r="G29" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1582,19 +1582,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>44892</v>
+        <v>41092</v>
       </c>
       <c r="G30" s="18">
-        <v>1122300</v>
+        <v>1659394</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1605,19 +1605,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
-        <v>44892</v>
+        <v>41092</v>
       </c>
       <c r="G31" s="18">
-        <v>1122300</v>
+        <v>2000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1628,19 +1628,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>41092</v>
+        <v>44892</v>
       </c>
       <c r="G32" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1651,19 +1651,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
         <v>41092</v>
       </c>
       <c r="G33" s="18">
-        <v>1027300</v>
+        <v>1482828</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1674,19 +1674,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
-        <v>52892</v>
+        <v>41092</v>
       </c>
       <c r="G34" s="18">
-        <v>1322300</v>
+        <v>1659394</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1697,19 +1697,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
         <v>41092</v>
       </c>
       <c r="G35" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1720,19 +1720,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F36" s="18">
         <v>41092</v>
       </c>
       <c r="G36" s="18">
-        <v>1027300</v>
+        <v>1098860</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1743,19 +1743,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F37" s="18">
         <v>41092</v>
       </c>
       <c r="G37" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1766,19 +1766,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F38" s="18">
         <v>41092</v>
       </c>
       <c r="G38" s="18">
-        <v>1027300</v>
+        <v>1161789</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1789,19 +1789,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F39" s="18">
-        <v>39040</v>
+        <v>41092</v>
       </c>
       <c r="G39" s="18">
-        <v>976000</v>
+        <v>2000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1812,19 +1812,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F40" s="18">
-        <v>39040</v>
+        <v>41092</v>
       </c>
       <c r="G40" s="18">
-        <v>976000</v>
+        <v>1252968</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1835,19 +1835,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F41" s="18">
-        <v>39040</v>
+        <v>41092</v>
       </c>
       <c r="G41" s="18">
-        <v>976000</v>
+        <v>2000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1858,19 +1858,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F42" s="18">
         <v>39040</v>
       </c>
       <c r="G42" s="18">
-        <v>976000</v>
+        <v>2000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1881,19 +1881,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F43" s="18">
-        <v>41092</v>
+        <v>42892</v>
       </c>
       <c r="G43" s="18">
-        <v>1027300</v>
+        <v>1659394</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1904,19 +1904,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F44" s="18">
         <v>41092</v>
       </c>
       <c r="G44" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1927,19 +1927,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F45" s="18">
         <v>41092</v>
       </c>
       <c r="G45" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1950,19 +1950,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F46" s="18">
         <v>41092</v>
       </c>
       <c r="G46" s="18">
-        <v>1027300</v>
+        <v>1161789</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1973,19 +1973,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F47" s="18">
         <v>41092</v>
       </c>
       <c r="G47" s="18">
-        <v>1027300</v>
+        <v>1838000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1996,19 +1996,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F48" s="18">
-        <v>41092</v>
+        <v>27578</v>
       </c>
       <c r="G48" s="18">
-        <v>1027300</v>
+        <v>877803</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2019,19 +2019,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F49" s="18">
         <v>41092</v>
       </c>
       <c r="G49" s="18">
-        <v>1027300</v>
+        <v>1511789</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2042,19 +2042,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F50" s="18">
         <v>41092</v>
       </c>
       <c r="G50" s="18">
-        <v>1027300</v>
+        <v>1384546</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2065,19 +2065,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F51" s="18">
         <v>41092</v>
       </c>
       <c r="G51" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2088,19 +2088,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F52" s="18">
         <v>41092</v>
       </c>
       <c r="G52" s="18">
-        <v>1027300</v>
+        <v>1838000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2111,19 +2111,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F53" s="18">
         <v>41092</v>
       </c>
       <c r="G53" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2134,19 +2134,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F54" s="18">
         <v>41092</v>
       </c>
       <c r="G54" s="18">
-        <v>1027300</v>
+        <v>1659394</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2157,19 +2157,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F55" s="18">
-        <v>43955</v>
+        <v>41092</v>
       </c>
       <c r="G55" s="18">
-        <v>1161789</v>
+        <v>2000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2180,19 +2180,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F56" s="18">
-        <v>43955</v>
+        <v>44892</v>
       </c>
       <c r="G56" s="18">
-        <v>1161789</v>
+        <v>2000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2203,19 +2203,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F57" s="18">
-        <v>46471</v>
+        <v>41092</v>
       </c>
       <c r="G57" s="18">
-        <v>1838000</v>
+        <v>1482828</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2226,19 +2226,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F58" s="18">
-        <v>39040</v>
+        <v>52892</v>
       </c>
       <c r="G58" s="18">
-        <v>1838000</v>
+        <v>2350000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2249,19 +2249,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F59" s="18">
-        <v>39040</v>
+        <v>41092</v>
       </c>
       <c r="G59" s="18">
-        <v>1838000</v>
+        <v>1659394</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2272,19 +2272,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F60" s="18">
-        <v>39040</v>
+        <v>41092</v>
       </c>
       <c r="G60" s="18">
-        <v>1838000</v>
+        <v>2000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2295,19 +2295,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F61" s="18">
-        <v>39040</v>
+        <v>41092</v>
       </c>
       <c r="G61" s="18">
-        <v>1838000</v>
+        <v>1098860</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2318,19 +2318,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F62" s="18">
-        <v>39040</v>
+        <v>41092</v>
       </c>
       <c r="G62" s="18">
-        <v>1838000</v>
+        <v>2000000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2341,19 +2341,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F63" s="18">
-        <v>39040</v>
+        <v>41092</v>
       </c>
       <c r="G63" s="18">
-        <v>1838000</v>
+        <v>1161789</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2364,19 +2364,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>66</v>
       </c>
       <c r="F64" s="18">
-        <v>39040</v>
+        <v>41092</v>
       </c>
       <c r="G64" s="18">
-        <v>1838000</v>
+        <v>2000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2387,19 +2387,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F65" s="18">
-        <v>39040</v>
+        <v>41092</v>
       </c>
       <c r="G65" s="18">
-        <v>1838000</v>
+        <v>1252968</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2410,19 +2410,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F66" s="18">
-        <v>39040</v>
+        <v>41092</v>
       </c>
       <c r="G66" s="18">
-        <v>1838000</v>
+        <v>2000000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2433,19 +2433,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F67" s="18">
         <v>39040</v>
       </c>
       <c r="G67" s="18">
-        <v>1838000</v>
+        <v>2000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2456,19 +2456,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F68" s="18">
-        <v>39040</v>
+        <v>42892</v>
       </c>
       <c r="G68" s="18">
-        <v>1838000</v>
+        <v>1659394</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2479,19 +2479,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="17" t="s">
-        <v>58</v>
-      </c>
       <c r="E69" s="16" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F69" s="18">
-        <v>39040</v>
+        <v>41092</v>
       </c>
       <c r="G69" s="18">
-        <v>1838000</v>
+        <v>2000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2502,19 +2502,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F70" s="18">
-        <v>39040</v>
+        <v>41092</v>
       </c>
       <c r="G70" s="18">
-        <v>1838000</v>
+        <v>2000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2525,19 +2525,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>39040</v>
+        <v>41092</v>
       </c>
       <c r="G71" s="18">
-        <v>1838000</v>
+        <v>1161789</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2548,16 +2548,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F72" s="18">
-        <v>39040</v>
+        <v>41092</v>
       </c>
       <c r="G72" s="18">
         <v>1838000</v>
@@ -2571,19 +2571,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F73" s="18">
-        <v>39040</v>
+        <v>27578</v>
       </c>
       <c r="G73" s="18">
-        <v>1838000</v>
+        <v>877803</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2594,19 +2594,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F74" s="18">
-        <v>39040</v>
+        <v>43955</v>
       </c>
       <c r="G74" s="18">
-        <v>1838000</v>
+        <v>1161789</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2617,19 +2617,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F75" s="18">
-        <v>42892</v>
+        <v>39040</v>
       </c>
       <c r="G75" s="18">
-        <v>1072300</v>
+        <v>2000000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2646,13 +2646,13 @@
         <v>70</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="F76" s="18">
-        <v>42892</v>
+        <v>43955</v>
       </c>
       <c r="G76" s="18">
-        <v>1072300</v>
+        <v>1161789</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2663,19 +2663,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E77" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F77" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G77" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2686,19 +2686,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F78" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G78" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2709,19 +2709,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E79" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F79" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G79" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2732,19 +2732,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F80" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G80" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2755,19 +2755,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E81" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F81" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G81" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2778,19 +2778,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G82" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2801,19 +2801,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E83" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F83" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G83" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2824,19 +2824,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F84" s="18">
-        <v>41092</v>
+        <v>39040</v>
       </c>
       <c r="G84" s="18">
-        <v>1027300</v>
+        <v>2000000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2847,19 +2847,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E85" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F85" s="18">
-        <v>27578</v>
+        <v>39040</v>
       </c>
       <c r="G85" s="18">
-        <v>689455</v>
+        <v>2000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2870,19 +2870,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="F86" s="18">
-        <v>27578</v>
+        <v>39040</v>
       </c>
       <c r="G86" s="18">
-        <v>689455</v>
+        <v>2000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2893,19 +2893,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E87" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F87" s="18">
-        <v>919</v>
+        <v>46471</v>
       </c>
       <c r="G87" s="18">
-        <v>781242</v>
+        <v>2000000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2948,7 +2948,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="18">
-        <v>34056</v>
+        <v>46440</v>
       </c>
       <c r="G89" s="18">
         <v>1161000</v>
@@ -3017,7 +3017,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="18">
-        <v>46440</v>
+        <v>34056</v>
       </c>
       <c r="G92" s="18">
         <v>1161000</v>
